--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_312__Reeval_LHS_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_312__Reeval_LHS_Modell_1.3.xlsx
@@ -5912,7 +5912,7 @@
                   <c:v>66.81658172607422</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>70.63936614990234</c:v>
+                  <c:v>70.63937377929688</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>70.69046020507812</c:v>
@@ -7191,7 +7191,7 @@
         <v>51.3815</v>
       </c>
       <c r="F15">
-        <v>70.63936614990234</v>
+        <v>70.63937377929688</v>
       </c>
     </row>
     <row r="16" spans="1:19">
